--- a/data/trans_camb/CoPsoQ_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/CoPsoQ_R-Clase-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>1.325313543928899</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>19.07239112418274</v>
+        <v>19.07239112418273</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.366650687768129</v>
+        <v>-4.956897088790341</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.30743551363487</v>
+        <v>3.932245483803863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.975419766747907</v>
+        <v>-8.526298829673756</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10.98122923698525</v>
+        <v>11.32968676846236</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.07908202244864</v>
+        <v>-4.241154015090844</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>10.03361941998303</v>
+        <v>10.26552770857774</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.696176389146723</v>
+        <v>8.564785300707072</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>27.57496506953488</v>
+        <v>27.67494327935677</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.915771395445254</v>
+        <v>8.302038012329813</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33.99929290847809</v>
+        <v>34.7701350001151</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.648359154328716</v>
+        <v>6.38793790732443</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>27.30686280993139</v>
+        <v>28.19803348871546</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>0.1182646393592398</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.8660808423157553</v>
+        <v>0.8660808423157557</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.0005414820114236801</v>
@@ -702,7 +702,7 @@
         <v>0.06959868647628288</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.001584399620569</v>
+        <v>1.001584399620568</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2041588943469393</v>
+        <v>-0.2570984448009146</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1578609108975584</v>
+        <v>0.1731387025558938</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3294401010384673</v>
+        <v>-0.3490556082410847</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4634247668115283</v>
+        <v>0.4715335924667943</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1875260671535092</v>
+        <v>-0.200795202090773</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4523816939217926</v>
+        <v>0.5138864204032345</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6731244922128737</v>
+        <v>0.574806942446216</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.897344136121851</v>
+        <v>1.735572912964509</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4974817211005017</v>
+        <v>0.5318945607884381</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.077611813172216</v>
+        <v>2.180484934241193</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4261542593562399</v>
+        <v>0.3950532872312201</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.589793466740591</v>
+        <v>1.691953416134963</v>
       </c>
     </row>
     <row r="10">
@@ -772,19 +772,19 @@
         <v>4.181801305579746</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>22.39190254446915</v>
+        <v>22.39190254446916</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>3.24007719471</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18.90038335856631</v>
+        <v>18.90038335856629</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>4.008827994878492</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>21.19023744512847</v>
+        <v>21.19023744512846</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.936207360882034</v>
+        <v>-3.510209754624326</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.06895990057775</v>
+        <v>9.272063221280987</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.619280468262454</v>
+        <v>-5.966922068165619</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.405234659096992</v>
+        <v>6.563856076148099</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.351091749369146</v>
+        <v>-1.388649092572379</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.76241781795581</v>
+        <v>12.19419438936166</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.88743787850507</v>
+        <v>12.02443007520073</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>35.52776212558646</v>
+        <v>35.899050361295</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.22619065920404</v>
+        <v>12.68712584659211</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30.24672750045639</v>
+        <v>32.60699810924814</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.512320366672245</v>
+        <v>9.89444699977901</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>31.80586207571331</v>
+        <v>30.71000956706952</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         <v>0.155740815217806</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.9084848709771656</v>
+        <v>0.9084848709771648</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2296687705773174</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1605335806403813</v>
+        <v>-0.2094530419524083</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.51197272101369</v>
+        <v>0.4569961024921255</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2202266131387999</v>
+        <v>-0.2433201934073284</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2094992144944972</v>
+        <v>0.2485185393531393</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06696422198886751</v>
+        <v>-0.07174365652846704</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6179157541883595</v>
+        <v>0.5814915334375769</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.137557045787523</v>
+        <v>1.008066671297744</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.939339733686932</v>
+        <v>2.911934323104249</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7972835218878982</v>
+        <v>0.8407032189946059</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.855274132865895</v>
+        <v>1.850465013663636</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6590457942185005</v>
+        <v>0.6780616543070073</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.089327820281892</v>
+        <v>2.053792480235518</v>
       </c>
     </row>
     <row r="16">
@@ -932,19 +932,19 @@
         <v>-9.842270601699607</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>5.171643772153795</v>
+        <v>5.171643772153778</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>4.763736849022529</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-3.169120008294196</v>
+        <v>-3.169120008294191</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-6.149731916682444</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.729837596619178</v>
+        <v>2.729837596619183</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-17.85563486810072</v>
+        <v>-17.33562368506531</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.679298607442011</v>
+        <v>-9.890382523151626</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.044177323486951</v>
+        <v>-7.860648362355861</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-17.35373479227317</v>
+        <v>-17.31807524971406</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-12.55071625368166</v>
+        <v>-12.55901851838164</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.446674099749671</v>
+        <v>-7.929704392898955</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.744237383645346</v>
+        <v>-1.917851390484513</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>19.60372952321715</v>
+        <v>20.03027593798957</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19.08539804883383</v>
+        <v>17.69746353879076</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.77902398003016</v>
+        <v>15.01600423647989</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4428881158125564</v>
+        <v>0.8209303589114973</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.40326267331879</v>
+        <v>14.32629736746724</v>
       </c>
     </row>
     <row r="19">
@@ -1010,19 +1010,19 @@
         <v>-0.3547696991635876</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.1864145560996272</v>
+        <v>0.1864145560996266</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.2235702588293796</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.1487321829418601</v>
+        <v>-0.1487321829418598</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.2370691317330565</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1052338927242021</v>
+        <v>0.1052338927242023</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5652395701479445</v>
+        <v>-0.5533662051376195</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2979039421568765</v>
+        <v>-0.3200401227058685</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2904462164252258</v>
+        <v>-0.3281711497191427</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6894869119678959</v>
+        <v>-0.7062853806784378</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4406240106939117</v>
+        <v>-0.4407042722795708</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2727071237429983</v>
+        <v>-0.2912114932961055</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1080970180686248</v>
+        <v>-0.06972991238249693</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8104131950323544</v>
+        <v>0.8074817179344195</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.145605989901505</v>
+        <v>1.069357074555898</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9692849840388262</v>
+        <v>0.9589214516469167</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.009581758035058275</v>
+        <v>0.03306200293597182</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6011730991683913</v>
+        <v>0.6137770811618557</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>-1.330421260431491</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>4.490574559411248</v>
+        <v>4.490574559411237</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-8.078702598923835</v>
@@ -1104,7 +1104,7 @@
         <v>-4.222864033378218</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.1238729899245561</v>
+        <v>-0.1238729899245505</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.12469857584266</v>
+        <v>-7.41206838906618</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.936540822771109</v>
+        <v>-5.623215300236141</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.53028687194533</v>
+        <v>-15.05344143799121</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-14.4564243134414</v>
+        <v>-13.81917463338044</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-8.677256187264481</v>
+        <v>-8.744086889186166</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.727904929958557</v>
+        <v>-6.35392077280479</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.481284788345475</v>
+        <v>4.083985661262396</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.05373242872186</v>
+        <v>14.85780496433687</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.528481447499644</v>
+        <v>-2.271202278878304</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.391291828122567</v>
+        <v>3.071822495539748</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3402711870342827</v>
+        <v>0.5958594710772775</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.686813705756673</v>
+        <v>6.914935332958863</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>-0.05217578147100645</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.1761090594832443</v>
+        <v>0.1761090594832438</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.3213180703165684</v>
@@ -1182,7 +1182,7 @@
         <v>-0.1665800454688695</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.004886439186982281</v>
+        <v>-0.004886439186982061</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.246570817533617</v>
+        <v>-0.2567176949217907</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1943983289930271</v>
+        <v>-0.2048508724625004</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5066586918888027</v>
+        <v>-0.5041871308535897</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5107833199217979</v>
+        <v>-0.4910424655560724</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3090816664519269</v>
+        <v>-0.3248119508269207</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2535071231444544</v>
+        <v>-0.2377315743616772</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2624965851478626</v>
+        <v>0.1789460402828023</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6345310245625744</v>
+        <v>0.6208973254609955</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1129784709966453</v>
+        <v>-0.1000085869472885</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1585371530053966</v>
+        <v>0.1367790890873039</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02247342912678164</v>
+        <v>0.02623022783782344</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2899105518468447</v>
+        <v>0.2931038455935503</v>
       </c>
     </row>
     <row r="28">
@@ -1252,7 +1252,7 @@
         <v>4.438774807298119</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>4.703925396091391</v>
+        <v>4.703925396091396</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>6.664920103105604</v>
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.226657404622357</v>
+        <v>-6.043593712615787</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.328516337795378</v>
+        <v>-8.628141543478419</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.752220451251841</v>
+        <v>-2.569309752583173</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-13.8018168310869</v>
+        <v>-14.20659240910141</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.602409965089296</v>
+        <v>-2.108403849810115</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.518186417426728</v>
+        <v>-8.78584246112943</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15.22736170209216</v>
+        <v>14.472009930339</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>20.49932341537609</v>
+        <v>21.36494569576617</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16.40966234003047</v>
+        <v>16.96420875493151</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.758625846243223</v>
+        <v>7.810937162263258</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.0161103031154</v>
+        <v>11.95967689688084</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>11.16764514010863</v>
+        <v>10.14618715768439</v>
       </c>
     </row>
     <row r="31">
@@ -1330,7 +1330,7 @@
         <v>0.1735462295995365</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.1839130283128912</v>
+        <v>0.1839130283128914</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.2363863238043281</v>
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1721298911683491</v>
+        <v>-0.1910067561646887</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3292217914232483</v>
+        <v>-0.3038520178671468</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.09025334205795645</v>
+        <v>-0.07722691837106399</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4165633858596664</v>
+        <v>-0.4311052919450836</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.05568922518497557</v>
+        <v>-0.0596300405902753</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2895824777273744</v>
+        <v>-0.303550176578724</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7254043838786755</v>
+        <v>0.7682891409995207</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9470295802417141</v>
+        <v>0.9683986243411004</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7174939797553209</v>
+        <v>0.748963274829653</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4118974844766468</v>
+        <v>0.33771227953334</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.514275045772579</v>
+        <v>0.50512295894415</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4642170418481866</v>
+        <v>0.4158711934176668</v>
       </c>
     </row>
     <row r="34">
@@ -1412,13 +1412,13 @@
         <v>-0.05548815567381349</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>9.985337287391152</v>
+        <v>9.985337287391163</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>-0.5142724087642853</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5.831987447258927</v>
+        <v>5.831987447258916</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-0.2258981685185679</v>
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.945055445125106</v>
+        <v>-3.605212720101626</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>4.859347887000832</v>
+        <v>4.846797762900075</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.58832458303813</v>
+        <v>-4.382106873034668</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.8582294193676093</v>
+        <v>0.6189082939352756</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.762977354589091</v>
+        <v>-2.686056904206975</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>4.351256106463023</v>
+        <v>4.431515482059063</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.279926005586945</v>
+        <v>2.896808194712396</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>16.00604772064563</v>
+        <v>15.46278757856622</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.277482182228671</v>
+        <v>3.294050584181921</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.96034764382266</v>
+        <v>10.91958384342187</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.172536920042782</v>
+        <v>2.26776322744325</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>12.02065803112754</v>
+        <v>11.96868219801677</v>
       </c>
     </row>
     <row r="37">
@@ -1490,13 +1490,13 @@
         <v>-0.002467215248603273</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.4439862186575566</v>
+        <v>0.4439862186575571</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.02183104361228229</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.2475699067996244</v>
+        <v>0.247569906799624</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.009857349618855076</v>
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1254914238768594</v>
+        <v>-0.145531085091077</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.2078620235261756</v>
+        <v>0.1976233462187217</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1769148148240957</v>
+        <v>-0.174689096142337</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.02622596202767396</v>
+        <v>0.02108344413675759</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1139191168920133</v>
+        <v>-0.1102033779583416</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1824420341592233</v>
+        <v>0.1844519615876722</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1617051787931479</v>
+        <v>0.1361566783842119</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.7454623110473598</v>
+        <v>0.7240821201235531</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1511281088356175</v>
+        <v>0.1525569274412263</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4973511797417101</v>
+        <v>0.5034280215141071</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1010724158048996</v>
+        <v>0.1039303220161176</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5418309116593976</v>
+        <v>0.5427797247991284</v>
       </c>
     </row>
     <row r="40">
